--- a/py/CB등급 산출 항목별 %추출.xlsx
+++ b/py/CB등급 산출 항목별 %추출.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\HoldCredit\py\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9D419A-0038-4506-926F-99E941FD17FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="45" yWindow="24180" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -34,27 +40,15 @@
     <t>지역코드</t>
   </si>
   <si>
-    <t>Unnamed: 5</t>
-  </si>
-  <si>
     <t>주거지</t>
   </si>
   <si>
     <t>주소지</t>
   </si>
   <si>
-    <t>Unnamed: 8</t>
-  </si>
-  <si>
     <t>상품 판매기간</t>
   </si>
   <si>
-    <t>Unnamed: 10</t>
-  </si>
-  <si>
-    <t>Unnamed: 11</t>
-  </si>
-  <si>
     <t>(신용관리대상/공공정보)등록 총 건수</t>
   </si>
   <si>
@@ -574,9 +568,6 @@
     <t>저축은행업권 12개월전 대출총금액 대비 현재 대출총금액의 증가금액</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>전은연 계좌별 대부업권 미상환 대출 총기관수(대부업 저축은행 인터넷전문은행 정보 공유용)</t>
   </si>
   <si>
@@ -629,17 +620,37 @@
   </si>
   <si>
     <t>최근1년내 경험한 연체 총 건수(10만원미만제외)</t>
+  </si>
+  <si>
+    <t>AD_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD_YN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RRC_CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAC_CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LU0024001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -647,8 +658,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -694,15 +712,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -744,7 +770,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -776,9 +802,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -810,6 +854,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -985,14 +1047,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="128.6875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.4375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1000,1631 +1068,1632 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.344011906299648</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>1.3440119062996481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1.852373920244374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1.8523739202443741</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.6267235384827594</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.62672353848275941</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1.706465561681154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>1.7064655616811539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="B6">
         <v>0.9710688752533031</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1.242415514143657</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1.240812574937336</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9">
+        <v>1.4860547278302201E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.24072030166137401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11">
+        <v>0.61216404379920797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12">
+        <v>3.0425490642758731E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>0.0148605472783022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B13">
+        <v>1.25318107868787E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>0.240720301661374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="B14">
+        <v>8.4660749049508073E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>0.612164043799208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="B15">
+        <v>7.435753296983679E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>0.03042549064275873</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="B16">
+        <v>1.1969592991537881E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A17" t="s">
         <v>13</v>
-      </c>
-      <c r="B13">
-        <v>0.0125318107868787</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>0.0008466074904950807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>0.0007435753296983679</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>0.01196959299153788</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>0.7144283540363452</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>0.71442835403634519</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>0.1171606086120217</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>0.51854317377793768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>0.36232945594153981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>1.4256680907062189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>0.67232044555924808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>0.5185431737779377</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B24">
+        <v>1.6620839258237341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>0.3623294559415398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="B25">
+        <v>1.5925715757077861</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>1.425668090706219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="B26">
+        <v>1.4632030064453601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
-        <v>0.6723204455592481</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="B27">
+        <v>0.34318198882465489</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
-        <v>1.662083925823734</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="B28">
+        <v>0.48909888265442841</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
-        <v>1.592571575707786</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="B29">
+        <v>0.55282586470923378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
-        <v>1.46320300644536</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="B30">
+        <v>0.43238212871109272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A31" t="s">
         <v>27</v>
       </c>
-      <c r="B27">
-        <v>0.3431819888246549</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="B31">
+        <v>1.1510890318065969</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A32" t="s">
         <v>28</v>
-      </c>
-      <c r="B28">
-        <v>0.4890988826544284</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>0.5528258647092338</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>0.4323821287110927</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>1.151089031806597</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
       </c>
       <c r="B32">
         <v>0.4877429261302092</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B33">
         <v>1.065551297867785</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>0.58698190320732502</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>0.25661247220937422</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>0.78600747710025343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>0.24184201645466019</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A38" t="s">
         <v>34</v>
-      </c>
-      <c r="B34">
-        <v>0.586981903207325</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>0.2566124722093742</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>0.7860074771002534</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>0.2418420164546602</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
       </c>
       <c r="B38">
         <v>0.2041184865919459</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B39">
         <v>0.4267774582464457</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>0.38404271398660239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <v>0.40618470206749202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>0.79296256863511194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <v>0.90129837443643446</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A44" t="s">
         <v>40</v>
       </c>
-      <c r="B40">
-        <v>0.3840427139866024</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="B44">
+        <v>0.35200957606894928</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A45" t="s">
         <v>41</v>
       </c>
-      <c r="B41">
-        <v>0.406184702067492</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+      <c r="B45">
+        <v>0.34690572764249022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A46" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
-        <v>0.7929625686351119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="B46">
+        <v>0.38771874647372517</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A47" t="s">
         <v>43</v>
       </c>
-      <c r="B43">
-        <v>0.9012983744364345</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+      <c r="B47">
+        <v>0.41665135053443131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A48" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
-        <v>0.3520095760689493</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
+      <c r="B48">
+        <v>0.36385635241423508</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A49" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
-        <v>0.3469057276424902</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+      <c r="B49">
+        <v>0.74702480576671393</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A50" t="s">
         <v>46</v>
-      </c>
-      <c r="B46">
-        <v>0.3877187464737252</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47">
-        <v>0.4166513505344313</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48">
-        <v>0.3638563524142351</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>0.7470248057667139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
       </c>
       <c r="B50">
         <v>0.7697413220992888</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B51">
         <v>0.3609834727031952</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <v>0.40261690611945722</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53">
+        <v>0.36263928697519521</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54">
+        <v>0.49842606271760748</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55">
+        <v>0.29840633734908101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A56" t="s">
         <v>52</v>
       </c>
-      <c r="B52">
-        <v>0.4026169061194572</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+      <c r="B56">
+        <v>0.32715704496749348</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A57" t="s">
         <v>53</v>
       </c>
-      <c r="B53">
-        <v>0.3626392869751952</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+      <c r="B57">
+        <v>0.28983603367826172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A58" t="s">
         <v>54</v>
       </c>
-      <c r="B54">
-        <v>0.4984260627176075</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+      <c r="B58">
+        <v>0.49130768220815219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A59" t="s">
         <v>55</v>
       </c>
-      <c r="B55">
-        <v>0.298406337349081</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
+      <c r="B59">
+        <v>1.3134998762544761</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A60" t="s">
         <v>56</v>
-      </c>
-      <c r="B56">
-        <v>0.3271570449674935</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>0.2898360336782617</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>0.4913076822081522</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>1.313499876254476</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>60</v>
       </c>
       <c r="B60">
         <v>1.157069985551535</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B61">
-        <v>0.9763709308263882</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.97637093082638815</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B62">
         <v>0.3539131688352527</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65">
+        <v>2.318786699411937E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66">
+        <v>2.5446867429115682E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67">
+        <v>6.6103341247876826E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A68" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68">
+        <v>6.0978363924875188E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A69" t="s">
         <v>65</v>
-      </c>
-      <c r="B65">
-        <v>0.002318786699411937</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66">
-        <v>0.002544686742911568</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67">
-        <v>0.006610334124787683</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68">
-        <v>0.006097836392487519</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>69</v>
       </c>
       <c r="B69">
         <v>0.1166645609647409</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A70" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70">
+        <v>9.8484409136319256E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A71" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71">
+        <v>5.5952561220019063E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72">
+        <v>1.5772658513312981E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A73" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73">
+        <v>8.2307995151835369E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A74" t="s">
         <v>70</v>
       </c>
-      <c r="B70">
-        <v>0.09848440913631926</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
+      <c r="B74">
+        <v>1.6527557246243871E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A75" t="s">
         <v>71</v>
       </c>
-      <c r="B71">
-        <v>0.05595256122001906</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+      <c r="B75">
+        <v>3.276012851981349E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A76" t="s">
         <v>72</v>
       </c>
-      <c r="B72">
-        <v>0.01577265851331298</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+      <c r="B76">
+        <v>1.014215930474963E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A77" t="s">
         <v>73</v>
-      </c>
-      <c r="B73">
-        <v>0.008230799515183537</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74">
-        <v>0.01652755724624387</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75">
-        <v>0.03276012851981349</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76">
-        <v>0.01014215930474963</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>77</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A78" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78">
+        <v>1.8109302507474671E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A79" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79">
+        <v>1.8102507490214801</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A80" t="s">
+        <v>76</v>
+      </c>
+      <c r="B80">
+        <v>6.7858830153534777E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A81" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81">
+        <v>5.1087660061018517E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A82" t="s">
         <v>78</v>
       </c>
-      <c r="B78">
-        <v>0.01810930250747467</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
+      <c r="B82">
+        <v>5.2409112127993647E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A83" t="s">
         <v>79</v>
       </c>
-      <c r="B79">
-        <v>1.81025074902148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
+      <c r="B83">
+        <v>1.184711026678548E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A84" t="s">
         <v>80</v>
       </c>
-      <c r="B80">
-        <v>0.06785883015353478</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
+      <c r="B84">
+        <v>7.6566170934287887E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A85" t="s">
         <v>81</v>
       </c>
-      <c r="B81">
-        <v>0.05108766006101852</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
+      <c r="B85">
+        <v>1.116127486041438E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A86" t="s">
         <v>82</v>
       </c>
-      <c r="B82">
-        <v>0.0005240911212799365</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
+      <c r="B86">
+        <v>2.8631310638349292E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A87" t="s">
         <v>83</v>
       </c>
-      <c r="B83">
-        <v>0.001184711026678548</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
+      <c r="B87">
+        <v>0.61845580569921654</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A88" t="s">
         <v>84</v>
-      </c>
-      <c r="B84">
-        <v>0.0007656617093428789</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85">
-        <v>0.001116127486041438</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86">
-        <v>0.002863131063834929</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87">
-        <v>0.6184558056992165</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>88</v>
       </c>
       <c r="B88">
         <v>1.603212319961058</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B89">
-        <v>0.5975242063920271</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.59752420639202708</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B90">
-        <v>0.7120463863263574</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.71204638632635742</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B91">
-        <v>0.8343592729736409</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.83435927297364088</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B92">
         <v>0.4577785938079923</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B93">
-        <v>0.7290301531237768</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.72903015312377684</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B94">
-        <v>0.7776621770743319</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.77766217707433194</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B95">
-        <v>0.07510099086694419</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>7.5100990866944189E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B96">
         <v>0.1528490958731665</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B97">
         <v>0.7319879113368627</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A98" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98">
+        <v>0.30587843734636427</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A99" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99">
+        <v>0.34718914883407781</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A100" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100">
+        <v>0.78386404109556973</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A101" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101">
+        <v>0.50237733401183171</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A102" t="s">
         <v>98</v>
       </c>
-      <c r="B98">
-        <v>0.3058784373463643</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
+      <c r="B102">
+        <v>0.96093707626115732</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A103" t="s">
         <v>99</v>
       </c>
-      <c r="B99">
-        <v>0.3471891488340778</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
+      <c r="B103">
+        <v>0.56071863479454265</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A104" t="s">
         <v>100</v>
-      </c>
-      <c r="B100">
-        <v>0.7838640410955697</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101">
-        <v>0.5023773340118317</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102">
-        <v>0.9609370762611573</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103">
-        <v>0.5607186347945426</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>104</v>
       </c>
       <c r="B104">
         <v>1.20687091093521</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B105">
         <v>0.5958084921874669</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B106">
-        <v>0.663477098895294</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>0.66347709889529405</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B107">
-        <v>0.6056819849538262</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>0.60568198495382619</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B108">
         <v>0.5469365672171812</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A109" t="s">
+        <v>105</v>
+      </c>
+      <c r="B109">
+        <v>1.2104914055671481</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A110" t="s">
+        <v>106</v>
+      </c>
+      <c r="B110">
+        <v>0.20128035308484349</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A111" t="s">
+        <v>107</v>
+      </c>
+      <c r="B111">
+        <v>0.39761584862520599</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A112" t="s">
+        <v>108</v>
+      </c>
+      <c r="B112">
+        <v>1.0954943863026159E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A113" t="s">
         <v>109</v>
       </c>
-      <c r="B109">
-        <v>1.210491405567148</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
+      <c r="B113">
+        <v>9.7797726776317046E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A114" t="s">
         <v>110</v>
       </c>
-      <c r="B110">
-        <v>0.2012803530848435</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
+      <c r="B114">
+        <v>1.253015368020098E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A115" t="s">
         <v>111</v>
       </c>
-      <c r="B111">
-        <v>0.397615848625206</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
+      <c r="B115">
+        <v>1.2912696243904381E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A116" t="s">
         <v>112</v>
-      </c>
-      <c r="B112">
-        <v>0.01095494386302616</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113">
-        <v>0.0009779772677631705</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114">
-        <v>0.001253015368020098</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115">
-        <v>0.01291269624390438</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>116</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B117">
         <v>0.723962616835643</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B118">
         <v>0.1188947275089175</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B119">
-        <v>0.5304089071559416</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>0.53040890715594158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B120">
-        <v>0.3546461170282804</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>0.35464611702828042</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B121">
         <v>1.422326369359068</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B122">
-        <v>0.6749165974622932</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>0.67491659746229316</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B123">
         <v>1.683110496886447</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B124">
         <v>1.580333308464329</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A125" t="s">
+        <v>121</v>
+      </c>
+      <c r="B125">
+        <v>1.4338205500267009</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A126" t="s">
+        <v>122</v>
+      </c>
+      <c r="B126">
+        <v>0.34197939894559293</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A127" t="s">
+        <v>123</v>
+      </c>
+      <c r="B127">
+        <v>0.48704452233118212</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A128" t="s">
+        <v>124</v>
+      </c>
+      <c r="B128">
+        <v>0.54319980346642394</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A129" t="s">
         <v>125</v>
       </c>
-      <c r="B125">
-        <v>1.433820550026701</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
+      <c r="B129">
+        <v>0.43508066103827819</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A130" t="s">
         <v>126</v>
       </c>
-      <c r="B126">
-        <v>0.3419793989455929</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
+      <c r="B130">
+        <v>1.1276159751096899</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A131" t="s">
         <v>127</v>
       </c>
-      <c r="B127">
-        <v>0.4870445223311821</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
+      <c r="B131">
+        <v>0.48802261492047427</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A132" t="s">
         <v>128</v>
-      </c>
-      <c r="B128">
-        <v>0.5431998034664239</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129">
-        <v>0.4350806610382782</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>130</v>
-      </c>
-      <c r="B130">
-        <v>1.12761597510969</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>131</v>
-      </c>
-      <c r="B131">
-        <v>0.4880226149204743</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>132</v>
       </c>
       <c r="B132">
         <v>1.073325071308318</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A133" t="s">
+        <v>129</v>
+      </c>
+      <c r="B133">
+        <v>0.62290567859668156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A134" t="s">
+        <v>130</v>
+      </c>
+      <c r="B134">
+        <v>0.26001954311219178</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A135" t="s">
+        <v>131</v>
+      </c>
+      <c r="B135">
+        <v>0.75730808144691464</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A136" t="s">
+        <v>132</v>
+      </c>
+      <c r="B136">
+        <v>0.22005687612695279</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A137" t="s">
         <v>133</v>
       </c>
-      <c r="B133">
-        <v>0.6229056785966816</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
+      <c r="B137">
+        <v>0.21678650417585971</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A138" t="s">
         <v>134</v>
-      </c>
-      <c r="B134">
-        <v>0.2600195431121918</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>135</v>
-      </c>
-      <c r="B135">
-        <v>0.7573080814469146</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>136</v>
-      </c>
-      <c r="B136">
-        <v>0.2200568761269528</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>137</v>
-      </c>
-      <c r="B137">
-        <v>0.2167865041758597</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>138</v>
       </c>
       <c r="B138">
         <v>0.4934888225054313</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A139" t="s">
+        <v>135</v>
+      </c>
+      <c r="B139">
+        <v>0.43480478925986371</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A140" t="s">
+        <v>136</v>
+      </c>
+      <c r="B140">
+        <v>0.43748491455286931</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A141" t="s">
+        <v>137</v>
+      </c>
+      <c r="B141">
+        <v>0.78173381454718427</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A142" t="s">
+        <v>138</v>
+      </c>
+      <c r="B142">
+        <v>0.88097840400465222</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A143" t="s">
         <v>139</v>
       </c>
-      <c r="B139">
-        <v>0.4348047892598637</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
+      <c r="B143">
+        <v>0.37279470258013042</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A144" t="s">
         <v>140</v>
-      </c>
-      <c r="B140">
-        <v>0.4374849145528693</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>141</v>
-      </c>
-      <c r="B141">
-        <v>0.7817338145471843</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>142</v>
-      </c>
-      <c r="B142">
-        <v>0.8809784040046522</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
-        <v>143</v>
-      </c>
-      <c r="B143">
-        <v>0.3727947025801304</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>144</v>
       </c>
       <c r="B144">
         <v>0.3371153604863773</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B145">
-        <v>0.3701963695518383</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>0.37019636955183832</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B146">
-        <v>0.4147090743774121</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>0.41470907437741211</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B147">
         <v>0.3787227056201829</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B148">
         <v>0.7446577996345537</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A149" t="s">
+        <v>145</v>
+      </c>
+      <c r="B149">
+        <v>0.76744485961379694</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A150" t="s">
+        <v>146</v>
+      </c>
+      <c r="B150">
+        <v>0.36819592460365652</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A151" t="s">
+        <v>147</v>
+      </c>
+      <c r="B151">
+        <v>0.40526341021576162</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A152" t="s">
+        <v>148</v>
+      </c>
+      <c r="B152">
+        <v>0.36629689644029689</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A153" t="s">
         <v>149</v>
       </c>
-      <c r="B149">
-        <v>0.7674448596137969</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
+      <c r="B153">
+        <v>0.52706164405454214</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A154" t="s">
         <v>150</v>
       </c>
-      <c r="B150">
-        <v>0.3681959246036565</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
+      <c r="B154">
+        <v>0.28400128450697493</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A155" t="s">
         <v>151</v>
       </c>
-      <c r="B151">
-        <v>0.4052634102157616</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
+      <c r="B155">
+        <v>0.33445696752507692</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A156" t="s">
         <v>152</v>
       </c>
-      <c r="B152">
-        <v>0.3662968964402969</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
+      <c r="B156">
+        <v>0.31606508195508831</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A157" t="s">
         <v>153</v>
       </c>
-      <c r="B153">
-        <v>0.5270616440545421</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
+      <c r="B157">
+        <v>0.50448185058076389</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A158" t="s">
         <v>154</v>
-      </c>
-      <c r="B154">
-        <v>0.2840012845069749</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
-        <v>155</v>
-      </c>
-      <c r="B155">
-        <v>0.3344569675250769</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>156</v>
-      </c>
-      <c r="B156">
-        <v>0.3160650819550883</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>157</v>
-      </c>
-      <c r="B157">
-        <v>0.5044818505807639</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
-        <v>158</v>
       </c>
       <c r="B158">
         <v>1.31083198920082</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B159">
-        <v>1.165656065490213</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>1.1656560654902131</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B160">
-        <v>0.9900719530932436</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
+        <v>0.99007195309324358</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B161">
-        <v>0.3576491381519553</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
+        <v>0.35764913815195531</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A164" t="s">
+        <v>160</v>
+      </c>
+      <c r="B164">
+        <v>2.422278173653163E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A165" t="s">
+        <v>161</v>
+      </c>
+      <c r="B165">
+        <v>2.3149630876053112E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A166" t="s">
+        <v>162</v>
+      </c>
+      <c r="B166">
+        <v>6.4301335828013248E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A167" t="s">
+        <v>163</v>
+      </c>
+      <c r="B167">
+        <v>6.4846995692352822E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A168" t="s">
         <v>164</v>
       </c>
-      <c r="B164">
-        <v>0.002422278173653163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
+      <c r="B168">
+        <v>0.11521569702745391</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A169" t="s">
         <v>165</v>
       </c>
-      <c r="B165">
-        <v>0.002314963087605311</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
+      <c r="B169">
+        <v>9.5199858688868516E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A170" t="s">
         <v>166</v>
       </c>
-      <c r="B166">
-        <v>0.006430133582801325</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
+      <c r="B170">
+        <v>5.6617581262485131E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A171" t="s">
         <v>167</v>
       </c>
-      <c r="B167">
-        <v>0.006484699569235282</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
+      <c r="B171">
+        <v>1.4450930059210221E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A172" t="s">
         <v>168</v>
       </c>
-      <c r="B168">
-        <v>0.1152156970274539</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
+      <c r="B172">
+        <v>6.9785715179652447E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A173" t="s">
         <v>169</v>
       </c>
-      <c r="B169">
-        <v>0.09519985868886852</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
+      <c r="B173">
+        <v>1.615470833361415E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A174" t="s">
         <v>170</v>
       </c>
-      <c r="B170">
-        <v>0.05661758126248513</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
+      <c r="B174">
+        <v>3.3474102598745177E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A175" t="s">
         <v>171</v>
       </c>
-      <c r="B171">
-        <v>0.01445093005921022</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
+      <c r="B175">
+        <v>9.9148362097654756E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A176" t="s">
         <v>172</v>
-      </c>
-      <c r="B172">
-        <v>0.006978571517965245</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
-        <v>173</v>
-      </c>
-      <c r="B173">
-        <v>0.01615470833361415</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
-        <v>174</v>
-      </c>
-      <c r="B174">
-        <v>0.03347410259874518</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
-        <v>175</v>
-      </c>
-      <c r="B175">
-        <v>0.009914836209765476</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
-        <v>176</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B177">
-        <v>0.0194729629563963</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
+        <v>1.9472962956396299E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A178" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B178">
         <v>1.786793518509656</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A179" t="s">
+        <v>175</v>
+      </c>
+      <c r="B179">
+        <v>6.95909990433769E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A180" t="s">
+        <v>176</v>
+      </c>
+      <c r="B180">
+        <v>5.078820011558037E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A181" t="s">
+        <v>177</v>
+      </c>
+      <c r="B181">
+        <v>6.5756027516153783E-4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A182" t="s">
+        <v>178</v>
+      </c>
+      <c r="B182">
+        <v>1.0169300244762319E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A183" t="s">
         <v>179</v>
       </c>
-      <c r="B179">
-        <v>0.0695909990433769</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
+      <c r="B183">
+        <v>4.5739329440394198E-4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A184" t="s">
         <v>180</v>
       </c>
-      <c r="B180">
-        <v>0.05078820011558037</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
+      <c r="B184">
+        <v>1.5137346938169541E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A185" t="s">
         <v>181</v>
       </c>
-      <c r="B181">
-        <v>0.0006575602751615378</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
+      <c r="B185">
+        <v>2.6116294334717072E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A186" t="s">
+        <v>204</v>
+      </c>
+      <c r="B186">
+        <v>0.62358407768348767</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A187" t="s">
         <v>182</v>
-      </c>
-      <c r="B182">
-        <v>0.001016930024476232</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
-        <v>183</v>
-      </c>
-      <c r="B183">
-        <v>0.000457393294403942</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
-        <v>184</v>
-      </c>
-      <c r="B184">
-        <v>0.001513734693816954</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
-        <v>185</v>
-      </c>
-      <c r="B185">
-        <v>0.002611629433471707</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
-        <v>186</v>
-      </c>
-      <c r="B186">
-        <v>0.6235840776834877</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
-        <v>187</v>
       </c>
       <c r="B187">
         <v>1.593445443516869</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A188" t="s">
+        <v>183</v>
+      </c>
+      <c r="B188">
+        <v>0.60726930981549598</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A189" t="s">
+        <v>184</v>
+      </c>
+      <c r="B189">
+        <v>0.69971267871657672</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A190" t="s">
+        <v>185</v>
+      </c>
+      <c r="B190">
+        <v>0.84887383344146083</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A191" t="s">
+        <v>186</v>
+      </c>
+      <c r="B191">
+        <v>0.47399940591298578</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A192" t="s">
+        <v>187</v>
+      </c>
+      <c r="B192">
+        <v>0.71931055988490211</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A193" t="s">
         <v>188</v>
       </c>
-      <c r="B188">
-        <v>0.607269309815496</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
+      <c r="B193">
+        <v>0.76820249611656144</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A194" t="s">
         <v>189</v>
       </c>
-      <c r="B189">
-        <v>0.6997126787165767</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="s">
+      <c r="B194">
+        <v>7.0912621055564617E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A195" t="s">
         <v>190</v>
       </c>
-      <c r="B190">
-        <v>0.8488738334414608</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="s">
+      <c r="B195">
+        <v>0.15209049812789879</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A196" t="s">
         <v>191</v>
       </c>
-      <c r="B191">
-        <v>0.4739994059129858</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="s">
+      <c r="B196">
+        <v>0.73960754637019754</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A197" t="s">
         <v>192</v>
       </c>
-      <c r="B192">
-        <v>0.7193105598849021</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="s">
+      <c r="B197">
+        <v>0.30155598472411199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A198" t="s">
         <v>193</v>
       </c>
-      <c r="B193">
-        <v>0.7682024961165614</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="s">
+      <c r="B198">
+        <v>0.34822473622122851</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A199" t="s">
         <v>194</v>
       </c>
-      <c r="B194">
-        <v>0.07091262105556462</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="s">
+      <c r="B199">
+        <v>0.76515605497187666</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A200" t="s">
         <v>195</v>
       </c>
-      <c r="B195">
-        <v>0.1520904981278988</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="s">
+      <c r="B200">
+        <v>0.50917485223839576</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A201" t="s">
         <v>196</v>
       </c>
-      <c r="B196">
-        <v>0.7396075463701975</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
+      <c r="B201">
+        <v>0.98075132196330861</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A202" t="s">
         <v>197</v>
       </c>
-      <c r="B197">
-        <v>0.301555984724112</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
+      <c r="B202">
+        <v>0.56582708274362703</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A203" t="s">
         <v>198</v>
       </c>
-      <c r="B198">
-        <v>0.3482247362212285</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="s">
+      <c r="B203">
+        <v>1.2143791627958349</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A204" t="s">
         <v>199</v>
       </c>
-      <c r="B199">
-        <v>0.7651560549718767</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="s">
-        <v>200</v>
-      </c>
-      <c r="B200">
-        <v>0.5091748522383958</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="s">
-        <v>201</v>
-      </c>
-      <c r="B201">
-        <v>0.9807513219633086</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="s">
-        <v>202</v>
-      </c>
-      <c r="B202">
-        <v>0.565827082743627</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
-        <v>203</v>
-      </c>
-      <c r="B203">
-        <v>1.214379162795835</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
-        <v>204</v>
-      </c>
       <c r="B204">
-        <v>0.5870557184062769</v>
+        <v>0.58705571840627691</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>